--- a/Instances/G0044432_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c0.xlsx
+++ b/Instances/G0044432_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>11.80256535456731</v>
+        <v>12.87984525240385</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>5.493314302884615</v>
+        <v>5.820875901442307</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>9.631591796875</v>
+        <v>10.39017427884615</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>17.69379131610577</v>
+        <v>18.318359375</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7.25</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="n">
-        <v>9.75</v>
+        <v>5.875</v>
       </c>
       <c r="E5" t="n">
-        <v>18.75</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>17.4375</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0625</v>
+        <v>7.6875</v>
       </c>
       <c r="D6" t="n">
-        <v>11.4375</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>22.6875</v>
+        <v>16.3125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>7.21875</v>
       </c>
       <c r="C7" t="n">
-        <v>8.3125</v>
+        <v>10.28125</v>
       </c>
       <c r="D7" t="n">
-        <v>13.78125</v>
+        <v>19.25</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>19.03125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.34375</v>
+        <v>15.703125</v>
       </c>
       <c r="C8" t="n">
-        <v>9.84375</v>
+        <v>6.328125</v>
       </c>
       <c r="D8" t="n">
-        <v>16.640625</v>
+        <v>18.046875</v>
       </c>
       <c r="E8" t="n">
-        <v>9.609375</v>
+        <v>30.234375</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.171875</v>
+        <v>18.890625</v>
       </c>
       <c r="C9" t="n">
-        <v>12.59375</v>
+        <v>3.1484375</v>
       </c>
       <c r="D9" t="n">
-        <v>8.9609375</v>
+        <v>11.3828125</v>
       </c>
       <c r="E9" t="n">
-        <v>18.6484375</v>
+        <v>19.375</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.91796875</v>
+        <v>18.94921875</v>
       </c>
       <c r="C10" t="n">
-        <v>2.953125</v>
+        <v>7.62890625</v>
       </c>
       <c r="D10" t="n">
-        <v>12.796875</v>
+        <v>16.48828125</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0078125</v>
+        <v>46.265625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.138671875</v>
+        <v>14.634765625</v>
       </c>
       <c r="C11" t="n">
-        <v>10.41796875</v>
+        <v>11.162109375</v>
       </c>
       <c r="D11" t="n">
-        <v>5.705078125</v>
+        <v>15.875</v>
       </c>
       <c r="E11" t="n">
-        <v>34.7265625</v>
+        <v>18.603515625</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6572265625</v>
+        <v>21.6650390625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7470703125</v>
+        <v>10.7080078125</v>
       </c>
       <c r="D12" t="n">
         <v>15.9375</v>
       </c>
       <c r="E12" t="n">
-        <v>22.6611328125</v>
+        <v>27.392578125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.70751953125</v>
+        <v>20.958984375</v>
       </c>
       <c r="C13" t="n">
-        <v>6.73681640625</v>
+        <v>9.23193359375</v>
       </c>
       <c r="D13" t="n">
-        <v>19.9609375</v>
+        <v>9.23193359375</v>
       </c>
       <c r="E13" t="n">
-        <v>22.20654296875</v>
+        <v>28.943359375</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.746337890625</v>
+        <v>20.47998046875</v>
       </c>
       <c r="C14" t="n">
-        <v>4.49560546875</v>
+        <v>4.9951171875</v>
       </c>
       <c r="D14" t="n">
-        <v>10.239990234375</v>
+        <v>15.48486328125</v>
       </c>
       <c r="E14" t="n">
-        <v>28.721923828125</v>
+        <v>19.98046875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
